--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/dohi_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A70242A-2FC9-4030-9194-3D0B4B3FDBC4}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E29A2341-9242-48E0-AB78-5CD9FA4C89C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -177,6 +177,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>プロフィール</t>
+  </si>
+  <si>
     <t>テーブル物理名</t>
     <rPh sb="4" eb="6">
       <t>ブツリ</t>
@@ -187,6 +190,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>profile</t>
+  </si>
+  <si>
     <t>データ型</t>
     <rPh sb="3" eb="4">
       <t>カタ</t>
@@ -224,16 +230,18 @@
   </si>
   <si>
     <t>s_id</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>varchar</t>
   </si>
   <si>
-    <t>講師名</t>
-  </si>
-  <si>
-    <t>t_name</t>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>受講者名</t>
+  </si>
+  <si>
+    <t>s_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -241,64 +249,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受講者名</t>
-  </si>
-  <si>
-    <t>s_name</t>
-    <phoneticPr fontId="1"/>
+    <t>Not null</t>
   </si>
   <si>
     <t>プロフィール写真</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>ファイルパスではなく画像形式</t>
+  </si>
+  <si>
     <t>受講者メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>s_mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス名</t>
-  </si>
-  <si>
-    <t>c_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラミング経験</t>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出身学部</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>趣味</t>
-  </si>
-  <si>
-    <t>hobby</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年齢</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>old</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -313,11 +284,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+  </si>
+  <si>
+    <t>c_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラミング経験</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>出身学部</t>
+  </si>
+  <si>
+    <t>college</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>出身地</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>b_place</t>
+  </si>
+  <si>
+    <t>趣味</t>
+  </si>
+  <si>
+    <t>hobby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特技</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>好きな音楽</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>バイト経験</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>課外活動経験</t>
+  </si>
+  <si>
+    <t>activity</t>
   </si>
   <si>
     <t>自己PR</t>
@@ -331,27 +357,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>好きな音楽</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>誕生日</t>
-  </si>
-  <si>
-    <t>birth</t>
-  </si>
-  <si>
     <t>)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ユーザライク</t>
+  </si>
+  <si>
+    <t>受講者IDPW</t>
+  </si>
+  <si>
+    <t>s_idpw</t>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>受講者用PW</t>
   </si>
   <si>
     <t>s_pw</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時2回</t>
+  </si>
+  <si>
+    <t>講師用IDPW</t>
+  </si>
+  <si>
+    <t>t_idpw</t>
   </si>
   <si>
     <t>講師用ID</t>
@@ -365,6 +401,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>条件を付ける</t>
+  </si>
+  <si>
     <t>講師用PW</t>
     <rPh sb="0" eb="3">
       <t>コウシヨウ</t>
@@ -374,13 +413,16 @@
   <si>
     <t>t_pw</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +467,17 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -440,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -476,13 +529,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +574,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1283,7 +1354,9 @@
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1291,9 +1364,11 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1310,29 +1385,29 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table profile (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1340,23 +1415,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>s_id varchar primary key,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1364,23 +1441,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L25" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>s_name varchar Not null,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1388,23 +1467,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="J12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>icon blob,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1412,33 +1493,37 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>s_mail varchar,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>38</v>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1447,8 +1532,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">s_name varchar </v>
+        <f t="shared" si="0"/>
+        <v>gender char,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1456,23 +1541,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  ,</v>
+        <f t="shared" si="0"/>
+        <v>c_name char Not null,</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1480,13 +1567,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1495,22 +1582,22 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>s_mail varchar ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.25">
+        <f t="shared" si="0"/>
+        <v>exp char,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1519,8 +1606,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>c_name char ,</v>
+        <f t="shared" si="0"/>
+        <v>college varchar,</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1528,13 +1615,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1543,21 +1630,23 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>exp varchar ,</v>
+        <f t="shared" si="0"/>
+        <v>b_place varchar,</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
+      <c r="B19" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1565,22 +1654,22 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>college varchar ,</v>
+        <f t="shared" si="0"/>
+        <v>hobby varchar,</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>42</v>
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1589,8 +1678,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>hobby varchar ,</v>
+        <f t="shared" si="0"/>
+        <v>skill varchar,</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1598,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1613,8 +1702,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v>old  ,</v>
+        <f t="shared" si="0"/>
+        <v>music varchar,</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1622,13 +1711,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1637,22 +1726,22 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>gender char ,</v>
+        <f t="shared" si="0"/>
+        <v>job varchar,</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>58</v>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1661,22 +1750,22 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v>b_place varchar ,</v>
+        <f t="shared" si="0"/>
+        <v>activity varchar,</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>60</v>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1685,8 +1774,8 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v>pr varchar ,</v>
+        <f t="shared" si="0"/>
+        <v>pr varchar,</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1703,8 +1792,8 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v>music varchar ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1721,8 +1810,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">birth varchar </v>
+        <f t="shared" ref="L11:L29" si="1">C26&amp;" "&amp;D26&amp;IF(E26&lt;&gt;""," ("&amp;E26&amp;")","")&amp;IF(F26&lt;&gt;""," "&amp;F26,"")&amp;IF(G26&lt;&gt;""," "&amp;G26,"")&amp;IF(H26&lt;&gt;""," "&amp;H26,"")&amp;IF(I26&lt;&gt;""," "&amp;I26,"")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1739,8 +1828,8 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1757,8 +1846,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" ref="L28:L29" si="0">C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1775,8 +1864,8 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1793,7 +1882,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1944,20 +2033,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD0FD9F-1C40-41D4-9C8B-6C82311C060E}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1983,27 +2079,31 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2014,68 +2114,88 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table s_idpw (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>s_id varchar (20) primary key,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L29" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>s_pw varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2088,8 +2208,12 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2102,8 +2226,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2116,8 +2244,12 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2130,8 +2262,12 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2144,8 +2280,12 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2158,8 +2298,12 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2172,8 +2316,12 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2186,8 +2334,12 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25">
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.25">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2200,8 +2352,12 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2214,8 +2370,12 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2228,8 +2388,12 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2242,8 +2406,12 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2256,8 +2424,12 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2270,8 +2442,12 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2284,8 +2460,12 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2298,8 +2478,12 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2312,8 +2496,12 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2326,8 +2514,12 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="L29" t="str">
+        <f>C29&amp;" "&amp;D29&amp;IF(E29&lt;&gt;""," ("&amp;E29&amp;")","")&amp;IF(F29&lt;&gt;""," "&amp;F29,"")&amp;IF(G29&lt;&gt;""," "&amp;G29,"")&amp;IF(H29&lt;&gt;""," "&amp;H29,"")&amp;IF(I29&lt;&gt;""," "&amp;I29,"")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2341,7 +2533,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -2355,7 +2547,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="A32" s="3">
         <v>23</v>
       </c>
@@ -2488,20 +2680,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9695D88-0BDA-4A02-9751-7477F82BD953}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2515,7 +2715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2527,27 +2727,31 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2558,82 +2762,114 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table t_idpw (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>t_id varchar (20) primary key,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L29" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>t_pw varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>c_name char,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2646,8 +2882,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2660,8 +2900,12 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2674,8 +2918,12 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2688,8 +2936,12 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2702,8 +2954,12 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2716,8 +2972,12 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2730,8 +2990,12 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.25">
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2744,8 +3008,12 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2758,8 +3026,12 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2772,8 +3044,12 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2786,8 +3062,12 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2800,8 +3080,12 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2814,8 +3098,12 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2828,8 +3116,12 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2842,8 +3134,12 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2856,8 +3152,12 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2870,8 +3170,12 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="L29" t="str">
+        <f>C29&amp;" "&amp;D29&amp;IF(E29&lt;&gt;""," ("&amp;E29&amp;")","")&amp;IF(F29&lt;&gt;""," "&amp;F29,"")&amp;IF(G29&lt;&gt;""," "&amp;G29,"")&amp;IF(H29&lt;&gt;""," "&amp;H29,"")&amp;IF(I29&lt;&gt;""," "&amp;I29,"")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2885,7 +3189,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -2899,7 +3203,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="A32" s="3">
         <v>23</v>
       </c>
@@ -3032,6 +3336,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="83d7b74bdededa929b571601dd344c08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4608d9149edd9914b36c1ddce7675ba" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -3163,12 +3473,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3179,11 +3483,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/dohi_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E29A2341-9242-48E0-AB78-5CD9FA4C89C5}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3440E7A6-4389-4E37-993A-7D5D9EAC7EC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1423,7 +1423,9 @@
       <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1433,7 +1435,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>s_id varchar primary key,</v>
+        <v>s_id varchar (20) primary key,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1449,7 +1451,9 @@
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -1459,7 +1463,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L25" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>s_name varchar Not null,</v>
+        <v>s_name varchar (20) Not null,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1501,7 +1505,9 @@
       <c r="D13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1509,7 +1515,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>s_mail varchar,</v>
+        <v>s_mail varchar (30),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1599,7 +1605,9 @@
       <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1607,7 +1615,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>college varchar,</v>
+        <v>college varchar (10),</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1623,7 +1631,9 @@
       <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1631,7 +1641,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>b_place varchar,</v>
+        <v>b_place varchar (10),</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1647,7 +1657,9 @@
       <c r="D19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1655,7 +1667,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>hobby varchar,</v>
+        <v>hobby varchar (100),</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1671,7 +1683,9 @@
       <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1679,7 +1693,7 @@
       <c r="J20" s="3"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>skill varchar,</v>
+        <v>skill varchar (100),</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1695,7 +1709,9 @@
       <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1703,7 +1719,7 @@
       <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>music varchar,</v>
+        <v>music varchar (100),</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1719,7 +1735,9 @@
       <c r="D22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1727,7 +1745,7 @@
       <c r="J22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>job varchar,</v>
+        <v>job varchar (100),</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1743,7 +1761,9 @@
       <c r="D23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1751,7 +1771,7 @@
       <c r="J23" s="3"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>activity varchar,</v>
+        <v>activity varchar (100),</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1767,7 +1787,9 @@
       <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1775,7 +1797,7 @@
       <c r="J24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>pr varchar,</v>
+        <v>pr varchar (100),</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2036,7 +2058,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2155,10 +2177,10 @@
       <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>

--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/dohi_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-2\documents\02外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3440E7A6-4389-4E37-993A-7D5D9EAC7EC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0277EA-A3CC-4FF4-951C-E44F21B81521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -416,13 +415,71 @@
   </si>
   <si>
     <t>char</t>
+  </si>
+  <si>
+    <t>※論理名、物理名は学術的な呼称。一般的には上記で使われる</t>
+    <rPh sb="1" eb="4">
+      <t>ロンリメイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガクジュツテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名はテーブル名、物理名はエンティティ</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ブツリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名はラベル名</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名はフィールド名</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,12 +528,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -544,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +654,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -602,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -928,10 +1004,10 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E2:E3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
@@ -940,12 +1016,12 @@
     <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -959,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -971,19 +1047,25 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F5" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1013,7 +1095,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1026,7 +1108,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1039,7 +1121,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1048,7 +1130,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1057,7 +1139,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1066,7 +1148,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1075,7 +1157,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1084,7 +1166,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1093,7 +1175,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1102,7 +1184,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25">
+    <row r="18" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1111,7 +1193,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1120,7 +1202,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1129,7 +1211,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1138,7 +1220,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1147,7 +1229,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1156,7 +1238,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1165,7 +1247,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1174,7 +1256,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1183,7 +1265,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1192,7 +1274,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1201,7 +1283,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1210,7 +1292,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1219,7 +1301,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1228,7 +1310,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1237,7 +1319,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1246,7 +1328,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1255,7 +1337,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1264,7 +1346,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1273,7 +1355,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1282,7 +1364,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1302,11 +1384,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -1319,12 +1401,12 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1432,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1362,7 +1444,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1374,7 +1456,19 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1410,7 +1504,7 @@
         <v>create table profile (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1438,7 +1532,7 @@
         <v>s_id varchar (20) primary key,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1466,7 +1560,7 @@
         <v>s_name varchar (20) Not null,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1492,7 +1586,7 @@
         <v>icon blob,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1518,7 +1612,7 @@
         <v>s_mail varchar (30),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1542,7 +1636,7 @@
         <v>gender char,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1568,7 +1662,7 @@
         <v>c_name char Not null,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1592,7 +1686,7 @@
         <v>exp char,</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1618,7 +1712,7 @@
         <v>college varchar (10),</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1644,7 +1738,7 @@
         <v>b_place varchar (10),</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1670,7 +1764,7 @@
         <v>hobby varchar (100),</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1696,7 +1790,7 @@
         <v>skill varchar (100),</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1722,7 +1816,7 @@
         <v>music varchar (100),</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1748,7 +1842,7 @@
         <v>job varchar (100),</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1774,7 +1868,7 @@
         <v>activity varchar (100),</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1800,7 +1894,7 @@
         <v>pr varchar (100),</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1818,7 +1912,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1832,11 +1926,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" ref="L11:L29" si="1">C26&amp;" "&amp;D26&amp;IF(E26&lt;&gt;""," ("&amp;E26&amp;")","")&amp;IF(F26&lt;&gt;""," "&amp;F26,"")&amp;IF(G26&lt;&gt;""," "&amp;G26,"")&amp;IF(H26&lt;&gt;""," "&amp;H26,"")&amp;IF(I26&lt;&gt;""," "&amp;I26,"")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <f t="shared" ref="L26:L29" si="1">C26&amp;" "&amp;D26&amp;IF(E26&lt;&gt;""," ("&amp;E26&amp;")","")&amp;IF(F26&lt;&gt;""," "&amp;F26,"")&amp;IF(G26&lt;&gt;""," "&amp;G26,"")&amp;IF(H26&lt;&gt;""," "&amp;H26,"")&amp;IF(I26&lt;&gt;""," "&amp;I26,"")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1854,7 +1948,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1872,7 +1966,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1890,7 +1984,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -1907,7 +2001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -1921,7 +2015,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>23</v>
       </c>
@@ -1935,7 +2029,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>24</v>
       </c>
@@ -1949,7 +2043,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>25</v>
       </c>
@@ -1963,7 +2057,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>26</v>
       </c>
@@ -1977,7 +2071,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>27</v>
       </c>
@@ -1991,7 +2085,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>28</v>
       </c>
@@ -2005,7 +2099,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>29</v>
       </c>
@@ -2019,7 +2113,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>30</v>
       </c>
@@ -2033,7 +2127,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>31</v>
       </c>
@@ -2057,11 +2151,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD0FD9F-1C40-41D4-9C8B-6C82311C060E}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
@@ -2070,12 +2164,12 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2195,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2113,7 +2207,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2125,7 +2219,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2161,7 +2255,7 @@
         <v>create table s_idpw (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2189,7 +2283,7 @@
         <v>s_id varchar (20) primary key,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2213,11 +2307,11 @@
         <v>75</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L29" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L28" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>s_pw varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2235,7 +2329,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2253,7 +2347,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2271,7 +2365,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2289,7 +2383,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2307,7 +2401,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2325,7 +2419,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2343,7 +2437,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2361,7 +2455,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25">
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2379,7 +2473,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2397,7 +2491,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2415,7 +2509,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2433,7 +2527,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2451,7 +2545,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2469,7 +2563,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2487,7 +2581,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2505,7 +2599,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2523,7 +2617,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2541,7 +2635,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2555,7 +2649,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -2569,7 +2663,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>23</v>
       </c>
@@ -2583,7 +2677,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>24</v>
       </c>
@@ -2597,7 +2691,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>25</v>
       </c>
@@ -2611,7 +2705,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>26</v>
       </c>
@@ -2625,7 +2719,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>27</v>
       </c>
@@ -2639,7 +2733,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>28</v>
       </c>
@@ -2653,7 +2747,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>29</v>
       </c>
@@ -2667,7 +2761,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>30</v>
       </c>
@@ -2681,7 +2775,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>31</v>
       </c>
@@ -2696,6 +2790,7 @@
       <c r="J40" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2708,7 +2803,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
@@ -2718,12 +2813,12 @@
     <col min="11" max="11" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2737,7 +2832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2844,7 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2761,7 +2856,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2773,7 +2868,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2809,7 +2904,7 @@
         <v>create table t_idpw (</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2839,7 +2934,7 @@
         <v>t_id varchar (20) primary key,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2863,11 +2958,11 @@
         <v>75</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L29" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L28" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>t_pw varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2891,7 +2986,7 @@
         <v>c_name char,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2909,7 +3004,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2927,7 +3022,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2945,7 +3040,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2963,7 +3058,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2981,7 +3076,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2999,7 +3094,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3017,7 +3112,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25">
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3035,7 +3130,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3053,7 +3148,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3071,7 +3166,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3089,7 +3184,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3107,7 +3202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3125,7 +3220,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3143,7 +3238,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3161,7 +3256,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3179,7 +3274,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3197,7 +3292,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -3211,7 +3306,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -3225,7 +3320,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>23</v>
       </c>
@@ -3239,7 +3334,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>24</v>
       </c>
@@ -3253,7 +3348,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>25</v>
       </c>
@@ -3267,7 +3362,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>26</v>
       </c>
@@ -3281,7 +3376,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>27</v>
       </c>
@@ -3295,7 +3390,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>28</v>
       </c>
@@ -3309,7 +3404,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>29</v>
       </c>
@@ -3323,7 +3418,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>30</v>
       </c>
@@ -3337,7 +3432,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>31</v>
       </c>
@@ -3505,13 +3600,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-2\documents\02外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kato-re_seplus2016_onmicrosoft_com/Documents/E-2ドキュメント/02外部設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0277EA-A3CC-4FF4-951C-E44F21B81521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA52952-513B-4AC9-B6EF-018D2029B9ED}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -166,6 +167,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>YazawaReactor</t>
+  </si>
+  <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
       <t>ロンリ</t>
@@ -356,10 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザライク</t>
   </si>
   <si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>s_idpw</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>s_id</t>
@@ -416,70 +419,12 @@
   <si>
     <t>char</t>
   </si>
-  <si>
-    <t>※論理名、物理名は学術的な呼称。一般的には上記で使われる</t>
-    <rPh sb="1" eb="4">
-      <t>ロンリメイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ブツリメイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガクジュツテキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>イッパンテキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理名はテーブル名、物理名はエンティティ</t>
-    <rPh sb="0" eb="3">
-      <t>ロンリメイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ブツリメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理名はラベル名</t>
-    <rPh sb="0" eb="3">
-      <t>ロンリメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理名はフィールド名</t>
-    <rPh sb="0" eb="3">
-      <t>ブツリメイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,15 +437,6 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -525,13 +461,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -541,15 +470,73 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,8 +549,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -608,13 +601,299 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,37 +906,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,7 +1080,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1001,13 +1403,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
@@ -1016,362 +1418,421 @@
     <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="24.75">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="17">
         <v>44350</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D4" s="1" t="s">
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D5" s="1" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+    <row r="8" spans="1:6" ht="18.75">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
+      <c r="E8" s="18"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="E9" s="18"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+      <c r="E10" s="18"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15">
         <v>4</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
+      <c r="C11" s="19"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15">
         <v>5</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
+      <c r="C12" s="19"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15">
         <v>6</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
+      <c r="C13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15">
         <v>7</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
+      <c r="C14" s="19"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15">
         <v>8</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
+      <c r="C15" s="19"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15">
         <v>9</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
+      <c r="C16" s="19"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15">
         <v>10</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
+      <c r="C17" s="19"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15">
         <v>11</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15">
         <v>12</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
+      <c r="C19" s="19"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15">
         <v>13</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15">
         <v>14</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15">
         <v>15</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15">
         <v>16</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15">
         <v>17</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15">
         <v>18</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15">
         <v>19</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15">
         <v>20</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15">
         <v>21</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75">
+      <c r="A29" s="12"/>
+      <c r="B29" s="15">
         <v>22</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="3">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75">
+      <c r="A30" s="12"/>
+      <c r="B30" s="15">
         <v>23</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="3">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75">
+      <c r="A31" s="12"/>
+      <c r="B31" s="15">
         <v>24</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="3">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.75">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15">
         <v>25</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="12"/>
+      <c r="B33" s="15">
         <v>26</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="3">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15">
         <v>27</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="3">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15">
         <v>28</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="3">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15">
         <v>29</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="3">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75">
+      <c r="A37" s="12"/>
+      <c r="B37" s="15">
         <v>30</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="3">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="A38" s="12"/>
+      <c r="B38" s="15">
         <v>31</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1382,13 +1843,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -1401,761 +1862,979 @@
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="24.75">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" thickTop="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="52">
         <v>44350</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="19.5" thickTop="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="18.75">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="18.75">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.75">
+      <c r="A10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="str">
+        <f>"create table "&amp;C6&amp;" ("</f>
         <v>create table profile (</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.75">
+      <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3">
+      <c r="D11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="23">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+      <c r="F11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>s_id varchar (20) primary key,</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.75">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3">
+      <c r="D12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L25" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12" t="str">
+        <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;IF(E12&lt;&gt;""," ("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," "&amp;F12,"")&amp;IF(G12&lt;&gt;""," "&amp;G12,"")&amp;IF(H12&lt;&gt;""," "&amp;H12,"")&amp;IF(I12&lt;&gt;""," "&amp;I12,"")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>s_name varchar (20) Not null,</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="D13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="str">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>icon blob,</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" ht="18.75">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="15">
         <v>30</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>s_mail varchar (30),</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75">
+      <c r="A15" s="15">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
+      <c r="D15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>gender char,</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75">
+      <c r="A16" s="15">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>c_name char Not null,</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.75">
+      <c r="A17" s="15">
         <v>7</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
+      <c r="C17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>exp char,</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="18.75">
+      <c r="A18" s="15">
         <v>8</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="15">
         <v>10</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>college varchar (10),</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="18.75">
+      <c r="A19" s="15">
         <v>9</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="C19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="15">
         <v>10</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>b_place varchar (10),</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" ht="18.75">
+      <c r="A20" s="15">
         <v>10</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="15">
         <v>100</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>hobby varchar (100),</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="18.75">
+      <c r="A21" s="15">
         <v>11</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="15">
         <v>100</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>skill varchar (100),</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="18.75">
+      <c r="A22" s="15">
         <v>12</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="15">
         <v>100</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>music varchar (100),</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="18.75">
+      <c r="A23" s="15">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="15">
         <v>100</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>job varchar (100),</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75">
+      <c r="A24" s="15">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="C24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="15">
         <v>100</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>activity varchar (100),</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="18.75">
+      <c r="A25" s="15">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="C25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="15">
         <v>100</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>pr varchar (100),</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="18.75">
+      <c r="A26" s="15">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="18.75">
+      <c r="A27" s="15">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" ref="L26:L29" si="1">C26&amp;" "&amp;D26&amp;IF(E26&lt;&gt;""," ("&amp;E26&amp;")","")&amp;IF(F26&lt;&gt;""," "&amp;F26,"")&amp;IF(G26&lt;&gt;""," "&amp;G26,"")&amp;IF(H26&lt;&gt;""," "&amp;H26,"")&amp;IF(I26&lt;&gt;""," "&amp;I26,"")&amp;IF(C26&lt;&gt;"",",","")</f>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="str">
+        <f t="shared" ref="L27:L30" si="1">C27&amp;" "&amp;D27&amp;IF(E27&lt;&gt;""," ("&amp;E27&amp;")","")&amp;IF(F27&lt;&gt;""," "&amp;F27,"")&amp;IF(G27&lt;&gt;""," "&amp;G27,"")&amp;IF(H27&lt;&gt;""," "&amp;H27,"")&amp;IF(I27&lt;&gt;""," "&amp;I27,"")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="18.75">
+      <c r="A28" s="15">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="18.75">
+      <c r="A29" s="15">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="18.75">
+      <c r="A30" s="15">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>22</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>23</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>24</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>25</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>26</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>27</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>28</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>29</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>30</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>31</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" ht="18.75">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="18.75">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.75">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" ht="18.75">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17" ht="18.75">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" ht="18.75">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD0FD9F-1C40-41D4-9C8B-6C82311C060E}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
@@ -2164,630 +2843,1083 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="24.75">
+      <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75">
+      <c r="A2" s="12"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.75">
+      <c r="A3" s="12"/>
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="26">
         <v>44350</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.75">
+      <c r="A4" s="12"/>
+      <c r="B4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75">
+      <c r="A5" s="12"/>
+      <c r="B5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="18.75">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" ht="18.75">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75">
+      <c r="A9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="str">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table s_idpw (</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" ht="18.75">
+      <c r="A10" s="15">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="15">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
+      <c r="F10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="str">
         <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
         <v>s_id varchar (20) primary key,</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" ht="18.75">
+      <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="15">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="str">
         <f t="shared" ref="L11:L28" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>s_pw varchar (20),</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="18.75">
+      <c r="A12" s="15">
         <v>3</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="18.75">
+      <c r="A13" s="15">
         <v>4</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
+      <c r="B13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="18.75">
+      <c r="A14" s="15">
         <v>5</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" ht="18.75">
+      <c r="A15" s="15">
         <v>6</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
+      <c r="B15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" ht="18.75">
+      <c r="A16" s="15">
         <v>7</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
+      <c r="B16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.75">
+      <c r="A17" s="15">
         <v>8</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.75">
+      <c r="A18" s="15">
         <v>9</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" ht="18.75">
+      <c r="A19" s="15">
         <v>10</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" ht="18.75">
+      <c r="A20" s="15">
         <v>11</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" ht="18.75">
+      <c r="A21" s="15">
         <v>12</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
+      <c r="B21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.75">
+      <c r="A22" s="15">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" ht="18.75">
+      <c r="A23" s="15">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75">
+      <c r="A24" s="15">
         <v>15</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" ht="18.75">
+      <c r="A25" s="15">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75">
+      <c r="A26" s="15">
         <v>17</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" ht="18.75">
+      <c r="A27" s="15">
         <v>18</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" ht="18.75">
+      <c r="A28" s="15">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.75">
+      <c r="A29" s="15">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="str">
         <f>C29&amp;" "&amp;D29&amp;IF(E29&lt;&gt;""," ("&amp;E29&amp;")","")&amp;IF(F29&lt;&gt;""," "&amp;F29,"")&amp;IF(G29&lt;&gt;""," "&amp;G29,"")&amp;IF(H29&lt;&gt;""," "&amp;H29,"")&amp;IF(I29&lt;&gt;""," "&amp;I29,"")&amp;IF(C29&lt;&gt;"",",","")</f>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.75">
+      <c r="A30" s="15">
         <v>21</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.75">
+      <c r="A31" s="15">
         <v>22</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" ht="18.75">
+      <c r="A32" s="15">
         <v>23</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" ht="18.75">
+      <c r="A33" s="15">
         <v>24</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" ht="18.75">
+      <c r="A34" s="15">
         <v>25</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" ht="18.75">
+      <c r="A35" s="15">
         <v>26</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" ht="18.75">
+      <c r="A36" s="15">
         <v>27</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15" ht="18.75">
+      <c r="A37" s="15">
         <v>28</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" ht="18.75">
+      <c r="A38" s="15">
         <v>29</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" ht="18.75">
+      <c r="A39" s="15">
         <v>30</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" ht="18.75">
+      <c r="A40" s="15">
         <v>31</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" ht="18.75">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" ht="18.75">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" ht="18.75">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" ht="18.75">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" ht="18.75">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" ht="18.75">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:15" ht="18.75">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15" ht="18.75">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" ht="18.75">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="1:15" ht="18.75">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="1:15" ht="18.75">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="1:15" ht="18.75">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2803,7 +3935,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
@@ -2813,16 +3945,16 @@
     <col min="11" max="11" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2832,7 +3964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2840,35 +3972,38 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>44350</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>76</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="18.75">
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2879,22 +4014,22 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
@@ -2904,48 +4039,48 @@
         <v>create table t_idpw (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="12" t="s">
-        <v>80</v>
+      <c r="J10" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
         <v>t_id varchar (20) primary key,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
+        <v>83</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2955,25 +4090,25 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L28" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>t_pw varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>48</v>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2986,13 +4121,13 @@
         <v>c_name char,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3004,11 +4139,11 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3022,11 +4157,11 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3040,11 +4175,11 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3058,13 +4193,13 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3076,13 +4211,13 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3094,13 +4229,13 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3112,13 +4247,13 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="17.25">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3130,13 +4265,13 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3148,7 +4283,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3166,7 +4301,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3184,12 +4319,12 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3202,7 +4337,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3220,12 +4355,12 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3238,12 +4373,12 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3256,7 +4391,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3274,7 +4409,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3292,7 +4427,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -3306,7 +4441,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -3320,7 +4455,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32" s="3">
         <v>23</v>
       </c>
@@ -3334,7 +4469,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>24</v>
       </c>
@@ -3348,7 +4483,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>25</v>
       </c>
@@ -3362,7 +4497,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>26</v>
       </c>
@@ -3376,7 +4511,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>27</v>
       </c>
@@ -3390,7 +4525,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="3">
         <v>28</v>
       </c>
@@ -3404,7 +4539,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
         <v>29</v>
       </c>
@@ -3418,7 +4553,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>30</v>
       </c>
@@ -3432,7 +4567,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="3">
         <v>31</v>
       </c>
@@ -3600,36 +4735,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
 </file>
--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kato-re_seplus2016_onmicrosoft_com/Documents/E-2ドキュメント/02外部設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA52952-513B-4AC9-B6EF-018D2029B9ED}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E9AE71-D442-4A07-B303-2E3717FE2F1F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -360,6 +360,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>理解度</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>ユーザライク</t>
   </si>
   <si>
@@ -424,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +544,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -893,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1074,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2164,7 +2181,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12" t="str">
-        <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;IF(E12&lt;&gt;""," ("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," "&amp;F12,"")&amp;IF(G12&lt;&gt;""," "&amp;G12,"")&amp;IF(H12&lt;&gt;""," "&amp;H12,"")&amp;IF(I12&lt;&gt;""," "&amp;I12,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;IF(E12&lt;&gt;""," ("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," "&amp;F12,"")&amp;IF(G12&lt;&gt;""," "&amp;G12,"")&amp;IF(H12&lt;&gt;""," "&amp;H12,"")&amp;IF(I12&lt;&gt;""," "&amp;I12,"")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>s_name varchar (20) Not null,</v>
       </c>
       <c r="M12" s="12"/>
@@ -2196,7 +2213,7 @@
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;IF(E13&lt;&gt;""," ("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," "&amp;F13,"")&amp;IF(G13&lt;&gt;""," "&amp;G13,"")&amp;IF(H13&lt;&gt;""," "&amp;H13,"")&amp;IF(I13&lt;&gt;""," "&amp;I13,"")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>icon blob,</v>
       </c>
       <c r="M13" s="12"/>
@@ -2228,7 +2245,7 @@
       <c r="J14" s="15"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L12:L26" si="0">C14&amp;" "&amp;D14&amp;IF(E14&lt;&gt;""," ("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," "&amp;F14,"")&amp;IF(G14&lt;&gt;""," "&amp;G14,"")&amp;IF(H14&lt;&gt;""," "&amp;H14,"")&amp;IF(I14&lt;&gt;""," "&amp;I14,"")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>s_mail varchar (30),</v>
       </c>
       <c r="M14" s="12"/>
@@ -2589,9 +2606,15 @@
       <c r="A26" s="15">
         <v>16</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -2600,8 +2623,8 @@
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <f>C26&amp;" "&amp;D26&amp;IF(E26&lt;&gt;""," ("&amp;E26&amp;")","")&amp;IF(F26&lt;&gt;""," "&amp;F26,"")&amp;IF(G26&lt;&gt;""," "&amp;G26,"")&amp;IF(H26&lt;&gt;""," "&amp;H26,"")&amp;IF(I26&lt;&gt;""," "&amp;I26,"")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v>know int,</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -2845,7 +2868,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="24.75">
       <c r="A1" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2916,7 +2939,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>7</v>
@@ -2939,7 +2962,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>8</v>
@@ -3009,7 +3032,7 @@
     </row>
     <row r="9" spans="1:19" ht="18.75">
       <c r="A9" s="34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>10</v>
@@ -3055,7 +3078,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>34</v>
@@ -3084,10 +3107,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>34</v>
@@ -3100,7 +3123,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="str">
@@ -3947,7 +3970,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3981,7 +4004,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -3993,7 +4016,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -4044,10 +4067,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>34</v>
@@ -4062,7 +4085,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
@@ -4074,10 +4097,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>34</v>
@@ -4090,7 +4113,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L28" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4108,7 +4131,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4588,9 +4611,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4726,16 +4752,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4743,5 +4766,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
 </file>
--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24202"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kato-re_seplus2016_onmicrosoft_com/Documents/E-2ドキュメント/02外部設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E9AE71-D442-4A07-B303-2E3717FE2F1F}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E0952B-B703-415F-81E0-DC54D00D5386}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1428,11 +1428,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75">
@@ -1862,21 +1862,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75">
@@ -2860,9 +2860,9 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3961,11 +3961,11 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -4620,6 +4620,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="83d7b74bdededa929b571601dd344c08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4608d9149edd9914b36c1ddce7675ba" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -4751,20 +4757,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
 </file>
--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24206"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kato-re_seplus2016_onmicrosoft_com/Documents/E-2ドキュメント/02外部設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E0952B-B703-415F-81E0-DC54D00D5386}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C23FE35-452B-41B8-8464-AF4BB23340B1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="s_idpw" sheetId="4" r:id="rId3"/>
     <sheet name="t_idpw" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -308,7 +308,6 @@
   </si>
   <si>
     <t>college</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>出身地</t>
@@ -322,7 +321,6 @@
   </si>
   <si>
     <t>hobby</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>特技</t>
@@ -357,7 +355,6 @@
   </si>
   <si>
     <t>pr</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>理解度</t>
@@ -367,6 +364,12 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>理解度（不）</t>
+  </si>
+  <si>
+    <t>unknow</t>
   </si>
   <si>
     <t>ユーザライク</t>
@@ -1862,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2636,9 +2639,15 @@
       <c r="A27" s="15">
         <v>17</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>71</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -2648,7 +2657,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12" t="str">
         <f t="shared" ref="L27:L30" si="1">C27&amp;" "&amp;D27&amp;IF(E27&lt;&gt;""," ("&amp;E27&amp;")","")&amp;IF(F27&lt;&gt;""," "&amp;F27,"")&amp;IF(G27&lt;&gt;""," "&amp;G27,"")&amp;IF(H27&lt;&gt;""," "&amp;H27,"")&amp;IF(I27&lt;&gt;""," "&amp;I27,"")&amp;IF(C27&lt;&gt;"",",","")</f>
-        <v xml:space="preserve"> </v>
+        <v>unknow int,</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -2854,7 +2863,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2868,7 +2877,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="24.75">
       <c r="A1" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2939,7 +2948,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>7</v>
@@ -2962,7 +2971,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>8</v>
@@ -3032,7 +3041,7 @@
     </row>
     <row r="9" spans="1:19" ht="18.75">
       <c r="A9" s="34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>10</v>
@@ -3078,7 +3087,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>34</v>
@@ -3107,10 +3116,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>34</v>
@@ -3123,7 +3132,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="str">
@@ -3970,7 +3979,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4004,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -4016,7 +4025,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -4067,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>34</v>
@@ -4085,7 +4094,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," "&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
@@ -4097,10 +4106,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>34</v>
@@ -4113,7 +4122,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L28" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," "&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4131,7 +4140,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4611,21 +4620,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="83d7b74bdededa929b571601dd344c08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4608d9149edd9914b36c1ddce7675ba" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -4757,14 +4757,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
 </file>
--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kato-re_seplus2016_onmicrosoft_com/Documents/E-2ドキュメント/02外部設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C23FE35-452B-41B8-8464-AF4BB23340B1}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2C4FE8-619E-489C-855D-A46EFFD18FA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="profile" sheetId="2" r:id="rId2"/>
     <sheet name="s_idpw" sheetId="4" r:id="rId3"/>
     <sheet name="t_idpw" sheetId="3" r:id="rId4"/>
+    <sheet name="know" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -430,6 +431,138 @@
   </si>
   <si>
     <t>char</t>
+  </si>
+  <si>
+    <t>加藤嶺雄</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>9時理解</t>
+  </si>
+  <si>
+    <t>know9</t>
+  </si>
+  <si>
+    <t>0'</t>
+  </si>
+  <si>
+    <t>9時不理解</t>
+  </si>
+  <si>
+    <t>unknow9</t>
+  </si>
+  <si>
+    <t>10時理解</t>
+  </si>
+  <si>
+    <t>know10</t>
+  </si>
+  <si>
+    <t>10時不理解</t>
+  </si>
+  <si>
+    <t>unknow10</t>
+  </si>
+  <si>
+    <t>11時理解</t>
+  </si>
+  <si>
+    <t>know11</t>
+  </si>
+  <si>
+    <t>11時不理解</t>
+  </si>
+  <si>
+    <t>unknow11</t>
+  </si>
+  <si>
+    <t>12時理解</t>
+  </si>
+  <si>
+    <t>know12</t>
+  </si>
+  <si>
+    <t>12時不理解</t>
+  </si>
+  <si>
+    <t>unknow12</t>
+  </si>
+  <si>
+    <t>13時理解</t>
+  </si>
+  <si>
+    <t>know13</t>
+  </si>
+  <si>
+    <t>13時不理解</t>
+  </si>
+  <si>
+    <t>unknow13</t>
+  </si>
+  <si>
+    <t>14時理解</t>
+  </si>
+  <si>
+    <t>know14</t>
+  </si>
+  <si>
+    <t>14時不理解</t>
+  </si>
+  <si>
+    <t>unknow14</t>
+  </si>
+  <si>
+    <t>15時理解</t>
+  </si>
+  <si>
+    <t>know15</t>
+  </si>
+  <si>
+    <t>15時不理解</t>
+  </si>
+  <si>
+    <t>unknow15</t>
+  </si>
+  <si>
+    <t>16時理解</t>
+  </si>
+  <si>
+    <t>know16</t>
+  </si>
+  <si>
+    <t>16時不理解</t>
+  </si>
+  <si>
+    <t>unknow16</t>
+  </si>
+  <si>
+    <t>17時理解</t>
+  </si>
+  <si>
+    <t>know17</t>
+  </si>
+  <si>
+    <t>17時不理解</t>
+  </si>
+  <si>
+    <t>unknow17</t>
+  </si>
+  <si>
+    <t>一日理解</t>
+  </si>
+  <si>
+    <t>knowday</t>
+  </si>
+  <si>
+    <t>一日不理解</t>
+  </si>
+  <si>
+    <t>unknowday</t>
   </si>
 </sst>
 </file>
@@ -573,7 +706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -904,13 +1037,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,6 +1238,27 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,11 +1609,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75">
@@ -1865,21 +2043,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75">
@@ -2622,12 +2800,14 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12" t="str">
         <f>C26&amp;" "&amp;D26&amp;IF(E26&lt;&gt;""," ("&amp;E26&amp;")","")&amp;IF(F26&lt;&gt;""," "&amp;F26,"")&amp;IF(G26&lt;&gt;""," "&amp;G26,"")&amp;IF(H26&lt;&gt;""," "&amp;H26,"")&amp;IF(I26&lt;&gt;""," "&amp;I26,"")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v>know int,</v>
+        <v>know int 0,</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -2652,12 +2832,14 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12" t="str">
         <f t="shared" ref="L27:L30" si="1">C27&amp;" "&amp;D27&amp;IF(E27&lt;&gt;""," ("&amp;E27&amp;")","")&amp;IF(F27&lt;&gt;""," "&amp;F27,"")&amp;IF(G27&lt;&gt;""," "&amp;G27,"")&amp;IF(H27&lt;&gt;""," "&amp;H27,"")&amp;IF(I27&lt;&gt;""," "&amp;I27,"")&amp;IF(C27&lt;&gt;"",",","")</f>
-        <v>unknow int,</v>
+        <v>unknow int 0,</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -2862,16 +3044,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD0FD9F-1C40-41D4-9C8B-6C82311C060E}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection sqref="A1:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3964,17 +4146,17 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -4619,13 +4801,1096 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0AF7C-4173-460E-8095-5CCF6F23CB4D}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24.75">
+      <c r="A1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75">
+      <c r="A2" s="12"/>
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75">
+      <c r="A3" s="12"/>
+      <c r="B3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="58">
+        <v>44365</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75">
+      <c r="A4" s="12"/>
+      <c r="B4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="12"/>
+      <c r="B5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75">
+      <c r="A9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table know (</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="str">
+        <f>C10&amp;" "&amp;D10&amp;IF(E10&lt;&gt;""," ("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," "&amp;F10,"")&amp;IF(G10&lt;&gt;""," "&amp;G10,"")&amp;IF(H10&lt;&gt;""," "&amp;H10,"")&amp;IF(I10&lt;&gt;""," DEFAULT '"&amp;I10,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>date date primary key,</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="str">
+        <f t="shared" ref="L11:L40" si="0">C11&amp;" "&amp;D11&amp;IF(E11&lt;&gt;""," ("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," "&amp;F11,"")&amp;IF(G11&lt;&gt;""," "&amp;G11,"")&amp;IF(H11&lt;&gt;""," "&amp;H11,"")&amp;IF(I11&lt;&gt;""," DEFAULT '"&amp;I11,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>know9 int DEFAULT '0',</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75">
+      <c r="A12" s="15">
+        <v>3</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow9 int DEFAULT '0',</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>know10 int DEFAULT '0',</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="A14" s="15">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow10 int DEFAULT '0',</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75">
+      <c r="A15" s="15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>know11 int DEFAULT '0',</v>
+      </c>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75">
+      <c r="A16" s="15">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow11 int DEFAULT '0',</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75">
+      <c r="A17" s="15">
+        <v>8</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>know12 int DEFAULT '0',</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75">
+      <c r="A18" s="15">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow12 int DEFAULT '0',</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75">
+      <c r="A19" s="15">
+        <v>10</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>know13 int DEFAULT '0',</v>
+      </c>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75">
+      <c r="A20" s="15">
+        <v>11</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow13 int DEFAULT '0',</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75">
+      <c r="A21" s="15">
+        <v>12</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>know14 int DEFAULT '0',</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75">
+      <c r="A22" s="15">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow14 int DEFAULT '0',</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75">
+      <c r="A23" s="15">
+        <v>14</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>know15 int DEFAULT '0',</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.75">
+      <c r="A24" s="15">
+        <v>15</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow15 int DEFAULT '0',</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75">
+      <c r="A25" s="15">
+        <v>16</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>know16 int DEFAULT '0',</v>
+      </c>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75">
+      <c r="A26" s="15">
+        <v>17</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow16 int DEFAULT '0',</v>
+      </c>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75">
+      <c r="A27" s="15">
+        <v>18</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>know17 int DEFAULT '0',</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.75">
+      <c r="A28" s="15">
+        <v>19</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknow17 int DEFAULT '0',</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75">
+      <c r="A29" s="15">
+        <v>20</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>knowday int DEFAULT '0',</v>
+      </c>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.75">
+      <c r="A30" s="15">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>unknowday int DEFAULT '0',</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75">
+      <c r="A31" s="15">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="18.75">
+      <c r="A32" s="15">
+        <v>23</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.75">
+      <c r="A33" s="15">
+        <v>24</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" ht="18.75">
+      <c r="A34" s="15">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" ht="18.75">
+      <c r="A35" s="15">
+        <v>26</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="18.75">
+      <c r="A36" s="15">
+        <v>27</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" ht="18.75">
+      <c r="A37" s="15">
+        <v>28</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.75">
+      <c r="A38" s="15">
+        <v>29</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" ht="18.75">
+      <c r="A39" s="15">
+        <v>30</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" ht="18.75">
+      <c r="A40" s="15">
+        <v>31</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" ht="18.75">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" ht="18.75">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" ht="18.75">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" ht="18.75">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" ht="18.75">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="18.75">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="83d7b74bdededa929b571601dd344c08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4608d9149edd9914b36c1ddce7675ba" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -4757,7 +6022,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4766,14 +6031,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012C7754-5863-4462-99E0-1CF3E79818CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
 </file>
--- a/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
+++ b/documents/02外部設計/02DB定義書_ユーザーライク.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kato-re_seplus2016_onmicrosoft_com/Documents/E-2ドキュメント/02外部設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2C4FE8-619E-489C-855D-A46EFFD18FA7}"/>
+  <xr:revisionPtr revIDLastSave="577" documentId="8_{4C52E961-A693-472F-A865-5DEF66A1A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BA9568B-8EDC-48C5-90AC-B21C26CEC129}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="s_idpw" sheetId="4" r:id="rId3"/>
     <sheet name="t_idpw" sheetId="3" r:id="rId4"/>
     <sheet name="know" sheetId="5" r:id="rId5"/>
+    <sheet name="reaction" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="142">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -563,6 +564,30 @@
   </si>
   <si>
     <t>unknowday</t>
+  </si>
+  <si>
+    <t>土肥シャヒン</t>
+  </si>
+  <si>
+    <t>反応ボタン</t>
+  </si>
+  <si>
+    <t>reaction</t>
+  </si>
+  <si>
+    <t>create table reaction (button varchar,count int);</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>カウント</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="C9" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -3044,9 +3069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD0FD9F-1C40-41D4-9C8B-6C82311C060E}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection sqref="A1:M46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4805,8 +4828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0AF7C-4173-460E-8095-5CCF6F23CB4D}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5890,7 +5913,797 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63930CBB-67A3-40A2-B51E-4855182F143D}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24.75">
+      <c r="A1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75">
+      <c r="A2" s="12"/>
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75">
+      <c r="A3" s="12"/>
+      <c r="B3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="58">
+        <v>44369</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75">
+      <c r="A4" s="12"/>
+      <c r="B4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="12"/>
+      <c r="B5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75">
+      <c r="A9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75">
+      <c r="A12" s="15">
+        <v>3</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="A14" s="15">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75">
+      <c r="A15" s="15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75">
+      <c r="A16" s="15">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75">
+      <c r="A17" s="15">
+        <v>8</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75">
+      <c r="A18" s="15">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75">
+      <c r="A19" s="15">
+        <v>10</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75">
+      <c r="A20" s="15">
+        <v>11</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75">
+      <c r="A21" s="15">
+        <v>12</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75">
+      <c r="A22" s="15">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75">
+      <c r="A23" s="15">
+        <v>14</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.75">
+      <c r="A24" s="15">
+        <v>15</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75">
+      <c r="A25" s="15">
+        <v>16</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75">
+      <c r="A26" s="15">
+        <v>17</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75">
+      <c r="A27" s="15">
+        <v>18</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.75">
+      <c r="A28" s="15">
+        <v>19</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75">
+      <c r="A29" s="15">
+        <v>20</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.75">
+      <c r="A30" s="15">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75">
+      <c r="A31" s="15">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="str">
+        <f t="shared" ref="L11:L40" si="0">C31&amp;" "&amp;D31&amp;IF(E31&lt;&gt;""," ("&amp;E31&amp;")","")&amp;IF(F31&lt;&gt;""," "&amp;F31,"")&amp;IF(G31&lt;&gt;""," "&amp;G31,"")&amp;IF(H31&lt;&gt;""," "&amp;H31,"")&amp;IF(I31&lt;&gt;""," DEFAULT '"&amp;I31,"")&amp;IF(C31&lt;&gt;"",",","")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="18.75">
+      <c r="A32" s="15">
+        <v>23</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.75">
+      <c r="A33" s="15">
+        <v>24</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" ht="18.75">
+      <c r="A34" s="15">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" ht="18.75">
+      <c r="A35" s="15">
+        <v>26</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="18.75">
+      <c r="A36" s="15">
+        <v>27</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" ht="18.75">
+      <c r="A37" s="15">
+        <v>28</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.75">
+      <c r="A38" s="15">
+        <v>29</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" ht="18.75">
+      <c r="A39" s="15">
+        <v>30</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" ht="18.75">
+      <c r="A40" s="15">
+        <v>31</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M40" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="83d7b74bdededa929b571601dd344c08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4608d9149edd9914b36c1ddce7675ba" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -6022,23 +6835,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6046,5 +6844,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{951CD6A5-DC65-4FE4-819B-CDF081FAED06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D0E8536-D680-47A9-AA44-18486681E03B}"/>
 </file>